--- a/DriverDrowsiness/results/output_eye.xlsx
+++ b/DriverDrowsiness/results/output_eye.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Recall Drowsy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Recall Non-Drowsy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>History Plot</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Confusion Matrix</t>
         </is>
       </c>
     </row>
@@ -556,14 +571,25 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>74.00000095367432</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>./plots/eye/history_1.png</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_1.png</t>
         </is>
       </c>
     </row>
@@ -618,14 +644,25 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>86.00000143051147</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>./plots/eye/history_2.png</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_2.png</t>
         </is>
       </c>
     </row>
@@ -680,14 +717,25 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>93.00000071525574</v>
+        <v>68.00000071525574</v>
       </c>
       <c r="M4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>./plots/eye/history_3.png</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_3.png</t>
         </is>
       </c>
     </row>
@@ -742,14 +790,25 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>87.00000047683716</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M5" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>./plots/eye/history_4.png</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_4.png</t>
         </is>
       </c>
     </row>
@@ -804,14 +863,25 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>92.00000166893005</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M6" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>./plots/eye/history_5.png</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_5.png</t>
         </is>
       </c>
     </row>
@@ -866,14 +936,25 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>91.00000262260437</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>./plots/eye/history_6.png</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_6.png</t>
         </is>
       </c>
     </row>
@@ -928,14 +1009,25 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>87.99999952316284</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>./plots/eye/history_7.png</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_7.png</t>
         </is>
       </c>
     </row>
@@ -990,14 +1082,25 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>93.00000071525574</v>
+        <v>50</v>
       </c>
       <c r="M9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>./plots/eye/history_8.png</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_8.png</t>
         </is>
       </c>
     </row>
@@ -1052,14 +1155,25 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>54.00000214576721</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>./plots/eye/history_9.png</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_9.png</t>
         </is>
       </c>
     </row>
@@ -1114,14 +1228,25 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>82.99999833106995</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M11" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>./plots/eye/history_10.png</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_10.png</t>
         </is>
       </c>
     </row>
@@ -1176,14 +1301,25 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>95.99999785423279</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>./plots/eye/history_11.png</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_11.png</t>
         </is>
       </c>
     </row>
@@ -1238,14 +1374,25 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>72.00000286102295</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M13" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>./plots/eye/history_12.png</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_12.png</t>
         </is>
       </c>
     </row>
@@ -1300,14 +1447,25 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>83.99999737739563</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>./plots/eye/history_13.png</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_13.png</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1520,25 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>85.00000238418579</v>
+        <v>87.99999952316284</v>
       </c>
       <c r="M15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>./plots/eye/history_14.png</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_14.png</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1593,25 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>56.00000023841858</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>./plots/eye/history_15.png</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_15.png</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1666,25 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>80.0000011920929</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>./plots/eye/history_16.png</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_16.png</t>
         </is>
       </c>
     </row>
@@ -1548,14 +1739,25 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>87.99999952316284</v>
+        <v>89.99999761581421</v>
       </c>
       <c r="M18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>./plots/eye/history_17.png</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_17.png</t>
         </is>
       </c>
     </row>
@@ -1610,14 +1812,25 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>50</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>./plots/eye/history_18.png</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_18.png</t>
         </is>
       </c>
     </row>
@@ -1672,14 +1885,25 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>86.00000143051147</v>
+        <v>54.00000214576721</v>
       </c>
       <c r="M20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>./plots/eye/history_19.png</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_19.png</t>
         </is>
       </c>
     </row>
@@ -1734,14 +1958,25 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>55.0000011920929</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>./plots/eye/history_20.png</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_20.png</t>
         </is>
       </c>
     </row>
@@ -1801,9 +2036,20 @@
       <c r="M22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>./plots/eye/history_21.png</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_21.png</t>
         </is>
       </c>
     </row>
@@ -1858,14 +2104,25 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>75</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>./plots/eye/history_22.png</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_22.png</t>
         </is>
       </c>
     </row>
@@ -1920,14 +2177,25 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>76.99999809265137</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>./plots/eye/history_23.png</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_23.png</t>
         </is>
       </c>
     </row>
@@ -1987,9 +2255,20 @@
       <c r="M25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>./plots/eye/history_24.png</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_24.png</t>
         </is>
       </c>
     </row>
@@ -2044,14 +2323,25 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>80.0000011920929</v>
+        <v>89.99999761581421</v>
       </c>
       <c r="M26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>./plots/eye/history_25.png</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_25.png</t>
         </is>
       </c>
     </row>
@@ -2106,14 +2396,25 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>73.00000190734863</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>./plots/eye/history_26.png</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_26.png</t>
         </is>
       </c>
     </row>
@@ -2168,14 +2469,25 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>58.99999737739563</v>
+        <v>60.00000238418579</v>
       </c>
       <c r="M28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>./plots/eye/history_27.png</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_27.png</t>
         </is>
       </c>
     </row>
@@ -2230,14 +2542,25 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>91.00000262260437</v>
+        <v>93.00000071525574</v>
       </c>
       <c r="M29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>./plots/eye/history_28.png</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_28.png</t>
         </is>
       </c>
     </row>
@@ -2292,14 +2615,25 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>81.99999928474426</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>./plots/eye/history_29.png</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_29.png</t>
         </is>
       </c>
     </row>
@@ -2354,14 +2688,25 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>69.9999988079071</v>
+        <v>62.00000047683716</v>
       </c>
       <c r="M31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>./plots/eye/history_30.png</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_30.png</t>
         </is>
       </c>
     </row>
@@ -2416,14 +2761,25 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>74.00000095367432</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>./plots/eye/history_31.png</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_31.png</t>
         </is>
       </c>
     </row>
@@ -2478,14 +2834,25 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>79.00000214576721</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>./plots/eye/history_32.png</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_32.png</t>
         </is>
       </c>
     </row>
@@ -2540,14 +2907,25 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="N34" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>./plots/eye/history_33.png</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_33.png</t>
         </is>
       </c>
     </row>
@@ -2602,14 +2980,25 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>75.99999904632568</v>
+        <v>54.00000214576721</v>
       </c>
       <c r="M35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>./plots/eye/history_34.png</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_34.png</t>
         </is>
       </c>
     </row>
@@ -2664,14 +3053,25 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>79.00000214576721</v>
+        <v>54.00000214576721</v>
       </c>
       <c r="M36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>./plots/eye/history_35.png</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_35.png</t>
         </is>
       </c>
     </row>
@@ -2726,14 +3126,25 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>57.99999833106995</v>
+        <v>50</v>
       </c>
       <c r="M37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>./plots/eye/history_36.png</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_36.png</t>
         </is>
       </c>
     </row>
@@ -2788,14 +3199,25 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>73.00000190734863</v>
+        <v>97.00000286102295</v>
       </c>
       <c r="M38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N38" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>./plots/eye/history_37.png</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_37.png</t>
         </is>
       </c>
     </row>
@@ -2850,14 +3272,25 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>87.00000047683716</v>
+        <v>75</v>
       </c>
       <c r="M39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>./plots/eye/history_38.png</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_38.png</t>
         </is>
       </c>
     </row>
@@ -2912,14 +3345,25 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>52.99999713897705</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>./plots/eye/history_39.png</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_39.png</t>
         </is>
       </c>
     </row>
@@ -2974,14 +3418,25 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>64.99999761581421</v>
+        <v>93.99999976158142</v>
       </c>
       <c r="M41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>./plots/eye/history_40.png</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_40.png</t>
         </is>
       </c>
     </row>
@@ -3036,14 +3491,25 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>89.99999761581421</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>./plots/eye/history_41.png</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_41.png</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3564,25 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>62.99999952316284</v>
+        <v>75.99999904632568</v>
       </c>
       <c r="M43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>./plots/eye/history_42.png</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_42.png</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3637,25 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>77.99999713897705</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>./plots/eye/history_43.png</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_43.png</t>
         </is>
       </c>
     </row>
@@ -3222,14 +3710,25 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>68.99999976158142</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>./plots/eye/history_44.png</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_44.png</t>
         </is>
       </c>
     </row>
@@ -3289,9 +3788,20 @@
       <c r="M46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>./plots/eye/history_45.png</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_45.png</t>
         </is>
       </c>
     </row>
@@ -3346,14 +3856,25 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>73.00000190734863</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>./plots/eye/history_46.png</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_46.png</t>
         </is>
       </c>
     </row>
@@ -3408,14 +3929,25 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>82.99999833106995</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>./plots/eye/history_47.png</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_47.png</t>
         </is>
       </c>
     </row>
@@ -3470,14 +4002,25 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>69.9999988079071</v>
+        <v>50</v>
       </c>
       <c r="M49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>./plots/eye/history_48.png</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_48.png</t>
         </is>
       </c>
     </row>
@@ -3532,14 +4075,25 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>64.99999761581421</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>./plots/eye/history_49.png</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_49.png</t>
         </is>
       </c>
     </row>
@@ -3599,9 +4153,20 @@
       <c r="M51" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N51" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>./plots/eye/history_50.png</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_50.png</t>
         </is>
       </c>
     </row>
@@ -3656,14 +4221,25 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>76.99999809265137</v>
+        <v>50</v>
       </c>
       <c r="M52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>./plots/eye/history_51.png</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_51.png</t>
         </is>
       </c>
     </row>
@@ -3718,14 +4294,25 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>75.99999904632568</v>
+        <v>94.9999988079071</v>
       </c>
       <c r="M53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="N53" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>./plots/eye/history_52.png</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_52.png</t>
         </is>
       </c>
     </row>
@@ -3780,14 +4367,25 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>81.00000023841858</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>./plots/eye/history_53.png</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_53.png</t>
         </is>
       </c>
     </row>
@@ -3842,14 +4440,25 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>85.00000238418579</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>./plots/eye/history_54.png</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_54.png</t>
         </is>
       </c>
     </row>
@@ -3904,14 +4513,25 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>75</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>./plots/eye/history_55.png</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_55.png</t>
         </is>
       </c>
     </row>
@@ -3966,14 +4586,25 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>74.00000095367432</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="N57" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>./plots/eye/history_56.png</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_56.png</t>
         </is>
       </c>
     </row>
@@ -4028,14 +4659,25 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>64.99999761581421</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M58" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>./plots/eye/history_57.png</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_57.png</t>
         </is>
       </c>
     </row>
@@ -4090,14 +4732,25 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>87.00000047683716</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>./plots/eye/history_58.png</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_58.png</t>
         </is>
       </c>
     </row>
@@ -4152,14 +4805,25 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>86.00000143051147</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>./plots/eye/history_59.png</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_59.png</t>
         </is>
       </c>
     </row>
@@ -4214,14 +4878,25 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>76.99999809265137</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M61" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>./plots/eye/history_60.png</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_60.png</t>
         </is>
       </c>
     </row>
@@ -4276,14 +4951,25 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>67.00000166893005</v>
+        <v>75</v>
       </c>
       <c r="M62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N62" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>./plots/eye/history_61.png</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_61.png</t>
         </is>
       </c>
     </row>
@@ -4338,14 +5024,25 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>86.00000143051147</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P63" t="inlineStr">
         <is>
           <t>./plots/eye/history_62.png</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_62.png</t>
         </is>
       </c>
     </row>
@@ -4400,14 +5097,25 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>64.99999761581421</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>./plots/eye/history_63.png</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_63.png</t>
         </is>
       </c>
     </row>
@@ -4462,14 +5170,25 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>67.00000166893005</v>
+        <v>93.99999976158142</v>
       </c>
       <c r="M65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="N65" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>./plots/eye/history_64.png</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_64.png</t>
         </is>
       </c>
     </row>
@@ -4524,14 +5243,25 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>75.99999904632568</v>
+        <v>88.99999856948853</v>
       </c>
       <c r="M66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>./plots/eye/history_65.png</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_65.png</t>
         </is>
       </c>
     </row>
@@ -4586,14 +5316,25 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>86.00000143051147</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>./plots/eye/history_66.png</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_66.png</t>
         </is>
       </c>
     </row>
@@ -4648,14 +5389,25 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>87.00000047683716</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>./plots/eye/history_67.png</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_67.png</t>
         </is>
       </c>
     </row>
@@ -4710,14 +5462,25 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>74.00000095367432</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>./plots/eye/history_68.png</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_68.png</t>
         </is>
       </c>
     </row>
@@ -4772,14 +5535,25 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>72.00000286102295</v>
+        <v>50</v>
       </c>
       <c r="M70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>./plots/eye/history_69.png</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_69.png</t>
         </is>
       </c>
     </row>
@@ -4834,14 +5608,25 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>87.00000047683716</v>
+        <v>68.00000071525574</v>
       </c>
       <c r="M71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>./plots/eye/history_70.png</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_70.png</t>
         </is>
       </c>
     </row>
@@ -4896,14 +5681,25 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>72.00000286102295</v>
+        <v>89.99999761581421</v>
       </c>
       <c r="M72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>./plots/eye/history_71.png</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_71.png</t>
         </is>
       </c>
     </row>
@@ -4958,14 +5754,25 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>85.00000238418579</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>./plots/eye/history_72.png</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_72.png</t>
         </is>
       </c>
     </row>
@@ -5020,14 +5827,25 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>63.99999856948853</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>./plots/eye/history_73.png</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_73.png</t>
         </is>
       </c>
     </row>
@@ -5082,14 +5900,25 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>85.00000238418579</v>
+        <v>75</v>
       </c>
       <c r="M75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N75" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>./plots/eye/history_74.png</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_74.png</t>
         </is>
       </c>
     </row>
@@ -5144,14 +5973,25 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>81.00000023841858</v>
+        <v>88.99999856948853</v>
       </c>
       <c r="M76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N76" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>./plots/eye/history_75.png</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_75.png</t>
         </is>
       </c>
     </row>
@@ -5206,14 +6046,25 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>85.00000238418579</v>
+        <v>92.00000166893005</v>
       </c>
       <c r="M77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N77" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>./plots/eye/history_76.png</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_76.png</t>
         </is>
       </c>
     </row>
@@ -5268,14 +6119,25 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>93.99999976158142</v>
+        <v>89.99999761581421</v>
       </c>
       <c r="M78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N78" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>./plots/eye/history_77.png</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_77.png</t>
         </is>
       </c>
     </row>
@@ -5330,14 +6192,25 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>74.00000095367432</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N79" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>./plots/eye/history_78.png</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_78.png</t>
         </is>
       </c>
     </row>
@@ -5392,14 +6265,25 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>97.00000286102295</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N80" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>./plots/eye/history_79.png</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_79.png</t>
         </is>
       </c>
     </row>
@@ -5454,14 +6338,25 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>79.00000214576721</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>./plots/eye/history_80.png</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_80.png</t>
         </is>
       </c>
     </row>
@@ -5516,14 +6411,25 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>68.99999976158142</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>./plots/eye/history_81.png</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_81.png</t>
         </is>
       </c>
     </row>
@@ -5578,14 +6484,25 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>75</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>./plots/eye/history_82.png</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_82.png</t>
         </is>
       </c>
     </row>
@@ -5640,14 +6557,25 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>87.99999952316284</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>./plots/eye/history_83.png</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_83.png</t>
         </is>
       </c>
     </row>
@@ -5702,14 +6630,25 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>82.99999833106995</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>./plots/eye/history_84.png</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_84.png</t>
         </is>
       </c>
     </row>
@@ -5764,14 +6703,25 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>87.00000047683716</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>./plots/eye/history_85.png</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_85.png</t>
         </is>
       </c>
     </row>
@@ -5826,14 +6776,25 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>91.00000262260437</v>
+        <v>72.00000286102295</v>
       </c>
       <c r="M87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>./plots/eye/history_86.png</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_86.png</t>
         </is>
       </c>
     </row>
@@ -5888,14 +6849,25 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>77.99999713897705</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="inlineStr">
         <is>
           <t>./plots/eye/history_87.png</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_87.png</t>
         </is>
       </c>
     </row>
@@ -5950,14 +6922,25 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>82.99999833106995</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="M89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N89" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>./plots/eye/history_88.png</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_88.png</t>
         </is>
       </c>
     </row>
@@ -6012,14 +6995,25 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>92.00000166893005</v>
+        <v>75</v>
       </c>
       <c r="M90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>./plots/eye/history_89.png</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_89.png</t>
         </is>
       </c>
     </row>
@@ -6074,14 +7068,25 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>70.99999785423279</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>./plots/eye/history_90.png</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_90.png</t>
         </is>
       </c>
     </row>
@@ -6136,14 +7141,25 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>83.99999737739563</v>
+        <v>75</v>
       </c>
       <c r="M92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>./plots/eye/history_91.png</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_91.png</t>
         </is>
       </c>
     </row>
@@ -6198,14 +7214,25 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>92.00000166893005</v>
+        <v>55.0000011920929</v>
       </c>
       <c r="M93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>./plots/eye/history_92.png</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_92.png</t>
         </is>
       </c>
     </row>
@@ -6260,14 +7287,25 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>51.99999809265137</v>
+        <v>50</v>
       </c>
       <c r="M94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>./plots/eye/history_93.png</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_93.png</t>
         </is>
       </c>
     </row>
@@ -6327,9 +7365,20 @@
       <c r="M95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>./plots/eye/history_94.png</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_94.png</t>
         </is>
       </c>
     </row>
@@ -6384,14 +7433,25 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>85.00000238418579</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>./plots/eye/history_95.png</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_95.png</t>
         </is>
       </c>
     </row>
@@ -6446,14 +7506,25 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>72.00000286102295</v>
+        <v>55.0000011920929</v>
       </c>
       <c r="M97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P97" t="inlineStr">
         <is>
           <t>./plots/eye/history_96.png</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>./plots/eye/cm/confusion_matrix_96.png</t>
         </is>
       </c>
     </row>

--- a/DriverDrowsiness/results/output_eye.xlsx
+++ b/DriverDrowsiness/results/output_eye.xlsx
@@ -571,16 +571,16 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>85.00000238418579</v>
+        <v>64.99999761581421</v>
       </c>
       <c r="M2" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N2" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -644,16 +644,16 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>80.0000011920929</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M3" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -717,16 +717,16 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>68.00000071525574</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M4" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O4" t="n">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>75.99999904632568</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M5" t="n">
         <v>3.196109771728516</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>86.00000143051147</v>
+        <v>68.00000071525574</v>
       </c>
       <c r="M6" t="n">
         <v>3.196109771728516</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -936,16 +936,16 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>68.99999976158142</v>
+        <v>57.99999833106995</v>
       </c>
       <c r="M7" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="N7" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>86.00000143051147</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M8" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N8" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1082,16 +1082,16 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>50</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M9" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>51.99999809265137</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M10" t="n">
         <v>1.617740631103516</v>
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>76.99999809265137</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M11" t="n">
         <v>1.617740631103516</v>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>70.99999785423279</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M12" t="n">
         <v>1.617740631103516</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>51.99999809265137</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M13" t="n">
         <v>1.617740631103516</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1447,16 +1447,16 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>87.00000047683716</v>
+        <v>77.99999713897705</v>
       </c>
       <c r="M14" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N14" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1520,16 +1520,16 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>87.99999952316284</v>
+        <v>92.00000166893005</v>
       </c>
       <c r="M15" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="O15" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>51.99999809265137</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M16" t="n">
         <v>3.177555084228516</v>
@@ -1666,16 +1666,16 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>72.00000286102295</v>
+        <v>88.99999856948853</v>
       </c>
       <c r="M17" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4</v>
+        <v>0.84</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1739,16 +1739,16 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>89.99999761581421</v>
+        <v>88.99999856948853</v>
       </c>
       <c r="M18" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>51.99999809265137</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M19" t="n">
         <v>3.177555084228516</v>
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>54.00000214576721</v>
+        <v>50</v>
       </c>
       <c r="M20" t="n">
         <v>1.599185943603516</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>56.99999928474426</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M21" t="n">
         <v>1.599185943603516</v>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>56.99999928474426</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M23" t="n">
         <v>1.599185943603516</v>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>89.99999761581421</v>
+        <v>92.00000166893005</v>
       </c>
       <c r="M26" t="n">
         <v>1.621250152587891</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>69.9999988079071</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M27" t="n">
         <v>1.621250152587891</v>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>60.00000238418579</v>
+        <v>50.99999904632568</v>
       </c>
       <c r="M28" t="n">
         <v>1.621250152587891</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2542,16 +2542,16 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>93.00000071525574</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M29" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="N29" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O29" t="n">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>67.00000166893005</v>
+        <v>55.0000011920929</v>
       </c>
       <c r="M30" t="n">
         <v>1.621250152587891</v>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>62.00000047683716</v>
+        <v>62.99999952316284</v>
       </c>
       <c r="M31" t="n">
         <v>1.621250152587891</v>
@@ -2761,7 +2761,7 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>72.00000286102295</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M32" t="n">
         <v>0.8241310119628906</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>56.99999928474426</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M33" t="n">
         <v>0.8241310119628906</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -2907,16 +2907,16 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M34" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="N34" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>54.00000214576721</v>
+        <v>76.99999809265137</v>
       </c>
       <c r="M35" t="n">
         <v>0.8241310119628906</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08</v>
+        <v>0.42</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>54.00000214576721</v>
+        <v>67.00000166893005</v>
       </c>
       <c r="M36" t="n">
         <v>0.8241310119628906</v>
@@ -3062,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>50</v>
+        <v>62.00000047683716</v>
       </c>
       <c r="M37" t="n">
         <v>0.8241310119628906</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3199,16 +3199,16 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>97.00000286102295</v>
+        <v>88.99999856948853</v>
       </c>
       <c r="M38" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N38" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O38" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>75</v>
+        <v>95.99999785423279</v>
       </c>
       <c r="M39" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N39" t="n">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3345,16 +3345,16 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>56.99999928474426</v>
+        <v>79.00000214576721</v>
       </c>
       <c r="M40" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3418,16 +3418,16 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>93.99999976158142</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M41" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O41" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -3491,16 +3491,16 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>77.99999713897705</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M42" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N42" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="O42" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3564,16 +3564,16 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>75.99999904632568</v>
+        <v>66.00000262260437</v>
       </c>
       <c r="M43" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="N43" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>69.9999988079071</v>
+        <v>56.00000023841858</v>
       </c>
       <c r="M44" t="n">
         <v>0.8133888244628906</v>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>56.99999928474426</v>
+        <v>58.99999737739563</v>
       </c>
       <c r="M45" t="n">
         <v>0.8133888244628906</v>
@@ -3719,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>76.99999809265137</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M47" t="n">
         <v>0.8133888244628906</v>
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>72.00000286102295</v>
+        <v>81.00000023841858</v>
       </c>
       <c r="M48" t="n">
         <v>0.8133888244628906</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4075,16 +4075,16 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>81.99999928474426</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="M50" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4148,16 +4148,16 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>81.99999928474426</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M51" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N51" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>50</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M52" t="n">
         <v>3.181461334228516</v>
@@ -4294,16 +4294,16 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>94.9999988079071</v>
+        <v>87.99999952316284</v>
       </c>
       <c r="M53" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N53" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4367,16 +4367,16 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>87.00000047683716</v>
+        <v>55.0000011920929</v>
       </c>
       <c r="M54" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="N54" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0.78</v>
+        <v>0.06</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>67.00000166893005</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M55" t="n">
         <v>3.181461334228516</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0.28</v>
+        <v>0.58</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -4513,16 +4513,16 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>77.99999713897705</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M56" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56" t="n">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -4586,16 +4586,16 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>70.99999785423279</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M57" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N57" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>58.99999737739563</v>
+        <v>50</v>
       </c>
       <c r="M58" t="n">
         <v>1.603092193603516</v>
@@ -4668,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>61.00000143051147</v>
+        <v>63.99999856948853</v>
       </c>
       <c r="M59" t="n">
         <v>1.603092193603516</v>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4805,16 +4805,16 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>63.99999856948853</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M60" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O60" t="n">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>56.99999928474426</v>
+        <v>60.00000238418579</v>
       </c>
       <c r="M61" t="n">
         <v>1.603092193603516</v>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -4951,16 +4951,16 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>75</v>
+        <v>70.99999785423279</v>
       </c>
       <c r="M62" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N62" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -5024,16 +5024,16 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>80.0000011920929</v>
+        <v>91.00000262260437</v>
       </c>
       <c r="M63" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O63" t="n">
-        <v>0.42</v>
+        <v>0.86</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -5170,16 +5170,16 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>93.99999976158142</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M65" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N65" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0.82</v>
+        <v>0.4</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -5243,16 +5243,16 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>88.99999856948853</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M66" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="N66" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O66" t="n">
         <v>0.84</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.76</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>67.00000166893005</v>
+        <v>74.00000095367432</v>
       </c>
       <c r="M67" t="n">
         <v>3.172183990478516</v>
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>74.00000095367432</v>
+        <v>51.99999809265137</v>
       </c>
       <c r="M68" t="n">
         <v>1.593814849853516</v>
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -5462,16 +5462,16 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>76.99999809265137</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M69" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O69" t="n">
-        <v>0.38</v>
+        <v>0.66</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>68.00000071525574</v>
+        <v>73.00000190734863</v>
       </c>
       <c r="M71" t="n">
         <v>1.593814849853516</v>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>89.99999761581421</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M72" t="n">
         <v>1.593814849853516</v>
@@ -5690,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>51.99999809265137</v>
+        <v>50</v>
       </c>
       <c r="M73" t="n">
         <v>1.593814849853516</v>
@@ -5827,13 +5827,13 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>81.00000023841858</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M74" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N74" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
@@ -5900,13 +5900,13 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>75</v>
+        <v>82.99999833106995</v>
       </c>
       <c r="M75" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N75" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="O75" t="n">
         <v>1</v>
@@ -5973,16 +5973,16 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>88.99999856948853</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M76" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N76" t="n">
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="O76" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -6046,16 +6046,16 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>92.00000166893005</v>
+        <v>86.00000143051147</v>
       </c>
       <c r="M77" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N77" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O77" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -6119,16 +6119,16 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>89.99999761581421</v>
+        <v>85.00000238418579</v>
       </c>
       <c r="M78" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="N78" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="O78" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>83.99999737739563</v>
+        <v>80.0000011920929</v>
       </c>
       <c r="M79" t="n">
         <v>1.612705230712891</v>
@@ -6201,7 +6201,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O79" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>72.00000286102295</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M80" t="n">
         <v>0.8155860900878906</v>
@@ -6274,7 +6274,7 @@
         <v>0.96</v>
       </c>
       <c r="O80" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>56.00000023841858</v>
+        <v>87.00000047683716</v>
       </c>
       <c r="M81" t="n">
         <v>0.8155860900878906</v>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>74.00000095367432</v>
+        <v>50</v>
       </c>
       <c r="M82" t="n">
         <v>0.8155860900878906</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>74.00000095367432</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M83" t="n">
         <v>0.8155860900878906</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>52.99999713897705</v>
+        <v>68.99999976158142</v>
       </c>
       <c r="M84" t="n">
         <v>0.8155860900878906</v>
@@ -6566,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>66.00000262260437</v>
+        <v>52.99999713897705</v>
       </c>
       <c r="M85" t="n">
         <v>0.8155860900878906</v>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -6703,16 +6703,16 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>86.00000143051147</v>
+        <v>94.9999988079071</v>
       </c>
       <c r="M86" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O86" t="n">
-        <v>0.54</v>
+        <v>1</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>72.00000286102295</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M87" t="n">
         <v>1.607334136962891</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="O87" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>50.99999904632568</v>
+        <v>56.99999928474426</v>
       </c>
       <c r="M88" t="n">
         <v>1.607334136962891</v>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -6922,16 +6922,16 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>91.00000262260437</v>
+        <v>81.99999928474426</v>
       </c>
       <c r="M89" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="N89" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>75</v>
+        <v>83.99999737739563</v>
       </c>
       <c r="M90" t="n">
         <v>1.607334136962891</v>
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>67.00000166893005</v>
+        <v>95.99999785423279</v>
       </c>
       <c r="M91" t="n">
         <v>1.607334136962891</v>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>0.28</v>
+        <v>0.88</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>75</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M92" t="n">
         <v>0.8102149963378906</v>
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>55.0000011920929</v>
+        <v>54.00000214576721</v>
       </c>
       <c r="M93" t="n">
         <v>0.8102149963378906</v>
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>76.99999809265137</v>
+        <v>69.9999988079071</v>
       </c>
       <c r="M95" t="n">
         <v>0.8102149963378906</v>
@@ -7369,7 +7369,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>69.9999988079071</v>
+        <v>61.00000143051147</v>
       </c>
       <c r="M96" t="n">
         <v>0.8102149963378906</v>
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="O96" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>55.0000011920929</v>
+        <v>50</v>
       </c>
       <c r="M97" t="n">
         <v>0.8102149963378906</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>

--- a/DriverDrowsiness/results/output_eye.xlsx
+++ b/DriverDrowsiness/results/output_eye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,30 +491,25 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Test Accuracy</t>
+          <t>Train Accuracy</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Validation Accuracy</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Model Size</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Recall Drowsy</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Recall Non-Drowsy</t>
+          <t>History Plot</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>History Plot</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Confusion Matrix</t>
         </is>
@@ -571,23 +566,20 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>64.99999761581421</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M2" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.22</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_1.png</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_1.png</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_1.png</t>
         </is>
@@ -644,23 +636,20 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M3" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.8</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_2.png</t>
+        </is>
       </c>
       <c r="P3" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_2.png</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_2.png</t>
         </is>
@@ -717,23 +706,20 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>76.99999809265137</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M4" t="n">
+        <v>0.7333333492279053</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.68</v>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_3.png</t>
+        </is>
       </c>
       <c r="P4" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_3.png</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_3.png</t>
         </is>
@@ -790,23 +776,20 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M5" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.5</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_4.png</t>
+        </is>
       </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_4.png</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_4.png</t>
         </is>
@@ -863,23 +846,20 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>68.00000071525574</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M6" t="n">
+        <v>0.8166666626930237</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.26</v>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_5.png</t>
+        </is>
       </c>
       <c r="P6" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_5.png</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_5.png</t>
         </is>
@@ -936,23 +916,20 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M7" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.196109771728516</v>
       </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_6.png</t>
+        </is>
       </c>
       <c r="P7" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_6.png</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_6.png</t>
         </is>
@@ -1009,23 +986,20 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M8" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.4</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_7.png</t>
+        </is>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_7.png</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_7.png</t>
         </is>
@@ -1082,23 +1056,20 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="M9" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.26</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_8.png</t>
+        </is>
       </c>
       <c r="P9" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_8.png</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_8.png</t>
         </is>
@@ -1155,23 +1126,20 @@
         <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>50.99999904632568</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M10" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_9.png</t>
+        </is>
       </c>
       <c r="P10" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_9.png</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_9.png</t>
         </is>
@@ -1228,23 +1196,20 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M11" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.08</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_10.png</t>
+        </is>
       </c>
       <c r="P11" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_10.png</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_10.png</t>
         </is>
@@ -1301,23 +1266,20 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M12" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N12" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.1</v>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_11.png</t>
+        </is>
       </c>
       <c r="P12" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_11.png</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_11.png</t>
         </is>
@@ -1374,23 +1336,20 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>52.99999713897705</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M13" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.617740631103516</v>
       </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.02</v>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_12.png</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_12.png</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_12.png</t>
         </is>
@@ -1447,23 +1406,20 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>77.99999713897705</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M14" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.58</v>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_13.png</t>
+        </is>
       </c>
       <c r="P14" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_13.png</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_13.png</t>
         </is>
@@ -1520,23 +1476,20 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>92.00000166893005</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M15" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_14.png</t>
+        </is>
       </c>
       <c r="P15" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_14.png</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_14.png</t>
         </is>
@@ -1593,23 +1546,20 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M16" t="n">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="N16" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_15.png</t>
+        </is>
       </c>
       <c r="P16" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_15.png</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_15.png</t>
         </is>
@@ -1666,23 +1616,20 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>88.99999856948853</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M17" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.84</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_16.png</t>
+        </is>
       </c>
       <c r="P17" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_16.png</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_16.png</t>
         </is>
@@ -1739,23 +1686,20 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>88.99999856948853</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.78</v>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_17.png</t>
+        </is>
       </c>
       <c r="P18" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_17.png</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_17.png</t>
         </is>
@@ -1812,23 +1756,20 @@
         <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>56.99999928474426</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M19" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N19" t="n">
         <v>3.177555084228516</v>
       </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.04</v>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_18.png</t>
+        </is>
       </c>
       <c r="P19" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_18.png</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_18.png</t>
         </is>
@@ -1885,23 +1826,20 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>50</v>
+        <v>0.9520833492279053</v>
       </c>
       <c r="M20" t="n">
+        <v>0.7166666388511658</v>
+      </c>
+      <c r="N20" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_19.png</t>
+        </is>
       </c>
       <c r="P20" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_19.png</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_19.png</t>
         </is>
@@ -1958,23 +1896,20 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>67.00000166893005</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M21" t="n">
+        <v>0.7333333492279053</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.26</v>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_20.png</t>
+        </is>
       </c>
       <c r="P21" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_20.png</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_20.png</t>
         </is>
@@ -2031,23 +1966,20 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>50</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M22" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N22" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_21.png</t>
+        </is>
       </c>
       <c r="P22" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_21.png</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_21.png</t>
         </is>
@@ -2104,23 +2036,20 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M23" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="N23" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5600000000000001</v>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_22.png</t>
+        </is>
       </c>
       <c r="P23" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_22.png</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_22.png</t>
         </is>
@@ -2177,23 +2106,20 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>57.99999833106995</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M24" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.12</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_23.png</t>
+        </is>
       </c>
       <c r="P24" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_23.png</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_23.png</t>
         </is>
@@ -2250,23 +2176,20 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>50</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M25" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.599185943603516</v>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_24.png</t>
+        </is>
       </c>
       <c r="P25" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_24.png</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_24.png</t>
         </is>
@@ -2323,23 +2246,20 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>92.00000166893005</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M26" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.82</v>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_25.png</t>
+        </is>
       </c>
       <c r="P26" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_25.png</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_25.png</t>
         </is>
@@ -2396,23 +2316,20 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M27" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.1</v>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_26.png</t>
+        </is>
       </c>
       <c r="P27" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_26.png</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_26.png</t>
         </is>
@@ -2469,23 +2386,20 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>50.99999904632568</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M28" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N28" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_27.png</t>
+        </is>
       </c>
       <c r="P28" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_27.png</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_27.png</t>
         </is>
@@ -2542,23 +2456,20 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>87.00000047683716</v>
+        <v>0.96875</v>
       </c>
       <c r="M29" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N29" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.78</v>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_28.png</t>
+        </is>
       </c>
       <c r="P29" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_28.png</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_28.png</t>
         </is>
@@ -2615,23 +2526,20 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>55.0000011920929</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M30" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N30" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.06</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_29.png</t>
+        </is>
       </c>
       <c r="P30" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_29.png</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_29.png</t>
         </is>
@@ -2688,23 +2596,20 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>62.99999952316284</v>
+        <v>0.9979166388511658</v>
       </c>
       <c r="M31" t="n">
+        <v>0.5666666626930237</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.621250152587891</v>
       </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.18</v>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_30.png</t>
+        </is>
       </c>
       <c r="P31" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_30.png</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_30.png</t>
         </is>
@@ -2761,23 +2666,20 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>70.99999785423279</v>
+        <v>0.9541666507720947</v>
       </c>
       <c r="M32" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.4</v>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_31.png</t>
+        </is>
       </c>
       <c r="P32" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_31.png</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_31.png</t>
         </is>
@@ -2834,23 +2736,20 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>52.99999713897705</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M33" t="n">
+        <v>0.6666666865348816</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.02</v>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_32.png</t>
+        </is>
       </c>
       <c r="P33" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_32.png</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_32.png</t>
         </is>
@@ -2907,23 +2806,20 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>50</v>
+        <v>0.96875</v>
       </c>
       <c r="M34" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_33.png</t>
+        </is>
       </c>
       <c r="P34" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_33.png</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_33.png</t>
         </is>
@@ -2980,23 +2876,20 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>76.99999809265137</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M35" t="n">
+        <v>0.7833333611488342</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.42</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_34.png</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_34.png</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_34.png</t>
         </is>
@@ -3053,23 +2946,20 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>67.00000166893005</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M36" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.3</v>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_35.png</t>
+        </is>
       </c>
       <c r="P36" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_35.png</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_35.png</t>
         </is>
@@ -3126,23 +3016,20 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>62.00000047683716</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M37" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.8241310119628906</v>
       </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.16</v>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_36.png</t>
+        </is>
       </c>
       <c r="P37" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_36.png</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_36.png</t>
         </is>
@@ -3199,23 +3086,20 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>88.99999856948853</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M38" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N38" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N38" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.88</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_37.png</t>
+        </is>
       </c>
       <c r="P38" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_37.png</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_37.png</t>
         </is>
@@ -3272,23 +3156,20 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>95.99999785423279</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M39" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N39" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.9</v>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_38.png</t>
+        </is>
       </c>
       <c r="P39" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_38.png</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_38.png</t>
         </is>
@@ -3345,23 +3226,20 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>79.00000214576721</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M40" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.6</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_39.png</t>
+        </is>
       </c>
       <c r="P40" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_39.png</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_39.png</t>
         </is>
@@ -3418,23 +3296,20 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>82.99999833106995</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M41" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N41" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_40.png</t>
+        </is>
       </c>
       <c r="P41" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_40.png</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_40.png</t>
         </is>
@@ -3491,23 +3366,20 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>80.0000011920929</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M42" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_41.png</t>
+        </is>
       </c>
       <c r="P42" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_41.png</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_41.png</t>
         </is>
@@ -3564,23 +3436,20 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>66.00000262260437</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M43" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.610507965087891</v>
       </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.2</v>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_42.png</t>
+        </is>
       </c>
       <c r="P43" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_42.png</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_42.png</t>
         </is>
@@ -3637,23 +3506,20 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>56.00000023841858</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M44" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.08</v>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_43.png</t>
+        </is>
       </c>
       <c r="P44" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_43.png</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_43.png</t>
         </is>
@@ -3710,23 +3576,20 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>58.99999737739563</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M45" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.16</v>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_44.png</t>
+        </is>
       </c>
       <c r="P45" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_44.png</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_44.png</t>
         </is>
@@ -3783,23 +3646,20 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>50</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M46" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_45.png</t>
+        </is>
       </c>
       <c r="P46" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_45.png</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_45.png</t>
         </is>
@@ -3856,23 +3716,20 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>73.00000190734863</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M47" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0.32</v>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_46.png</t>
+        </is>
       </c>
       <c r="P47" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_46.png</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_46.png</t>
         </is>
@@ -3929,23 +3786,20 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>81.00000023841858</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M48" t="n">
+        <v>0.7166666388511658</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.58</v>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_47.png</t>
+        </is>
       </c>
       <c r="P48" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_47.png</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_47.png</t>
         </is>
@@ -4002,23 +3856,20 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>50</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M49" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.8133888244628906</v>
       </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_48.png</t>
+        </is>
       </c>
       <c r="P49" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_48.png</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_48.png</t>
         </is>
@@ -4075,23 +3926,20 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>91.00000262260437</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M50" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N50" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N50" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.84</v>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_49.png</t>
+        </is>
       </c>
       <c r="P50" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_49.png</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_49.png</t>
         </is>
@@ -4148,23 +3996,20 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>63.99999856948853</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M51" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="N51" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.24</v>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_50.png</t>
+        </is>
       </c>
       <c r="P51" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_50.png</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_50.png</t>
         </is>
@@ -4221,23 +4066,20 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>51.99999809265137</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M52" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N52" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_51.png</t>
+        </is>
       </c>
       <c r="P52" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_51.png</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_51.png</t>
         </is>
@@ -4294,23 +4136,20 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>87.99999952316284</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M53" t="n">
+        <v>0.6833333373069763</v>
+      </c>
+      <c r="N53" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N53" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.98</v>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_52.png</t>
+        </is>
       </c>
       <c r="P53" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_52.png</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_52.png</t>
         </is>
@@ -4367,23 +4206,20 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>55.0000011920929</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0.06</v>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_53.png</t>
+        </is>
       </c>
       <c r="P54" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_53.png</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_53.png</t>
         </is>
@@ -4440,23 +4276,20 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M55" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="N55" t="n">
         <v>3.181461334228516</v>
       </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.58</v>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_54.png</t>
+        </is>
       </c>
       <c r="P55" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_54.png</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_54.png</t>
         </is>
@@ -4513,23 +4346,20 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>87.00000047683716</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="M56" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N56" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N56" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.58</v>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_55.png</t>
+        </is>
       </c>
       <c r="P56" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_55.png</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_55.png</t>
         </is>
@@ -4586,23 +4416,20 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M57" t="n">
+        <v>0.6499999761581421</v>
+      </c>
+      <c r="N57" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.12</v>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_56.png</t>
+        </is>
       </c>
       <c r="P57" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_56.png</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_56.png</t>
         </is>
@@ -4659,23 +4486,20 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>50</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M58" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="N58" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_57.png</t>
+        </is>
       </c>
       <c r="P58" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_57.png</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_57.png</t>
         </is>
@@ -4732,23 +4556,20 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>63.99999856948853</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M59" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N59" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.2</v>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_58.png</t>
+        </is>
       </c>
       <c r="P59" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_58.png</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_58.png</t>
         </is>
@@ -4805,23 +4626,20 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M60" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N60" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N60" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0.48</v>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_59.png</t>
+        </is>
       </c>
       <c r="P60" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_59.png</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_59.png</t>
         </is>
@@ -4878,23 +4696,20 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>60.00000238418579</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M61" t="n">
+        <v>0.6166666746139526</v>
+      </c>
+      <c r="N61" t="n">
         <v>1.603092193603516</v>
       </c>
-      <c r="N61" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.14</v>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_60.png</t>
+        </is>
       </c>
       <c r="P61" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_60.png</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_60.png</t>
         </is>
@@ -4951,23 +4766,20 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>70.99999785423279</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M62" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="N62" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.3</v>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_61.png</t>
+        </is>
       </c>
       <c r="P62" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_61.png</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_61.png</t>
         </is>
@@ -5024,23 +4836,20 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>91.00000262260437</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M63" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N63" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N63" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.86</v>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_62.png</t>
+        </is>
       </c>
       <c r="P63" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_62.png</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_62.png</t>
         </is>
@@ -5097,23 +4906,20 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>73.00000190734863</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M64" t="n">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="N64" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.22</v>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_63.png</t>
+        </is>
       </c>
       <c r="P64" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_63.png</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_63.png</t>
         </is>
@@ -5170,23 +4976,20 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>74.00000095367432</v>
+        <v>0.96875</v>
       </c>
       <c r="M65" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N65" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.4</v>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_64.png</t>
+        </is>
       </c>
       <c r="P65" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_64.png</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_64.png</t>
         </is>
@@ -5243,23 +5046,20 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>87.00000047683716</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M66" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N66" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N66" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.84</v>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_65.png</t>
+        </is>
       </c>
       <c r="P66" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_65.png</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_65.png</t>
         </is>
@@ -5316,23 +5116,20 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>74.00000095367432</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M67" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N67" t="n">
         <v>3.172183990478516</v>
       </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.44</v>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_66.png</t>
+        </is>
       </c>
       <c r="P67" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_66.png</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_66.png</t>
         </is>
@@ -5389,23 +5186,20 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>51.99999809265137</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M68" t="n">
+        <v>0.7333333492279053</v>
+      </c>
+      <c r="N68" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_67.png</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_67.png</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_67.png</t>
         </is>
@@ -5462,23 +5256,20 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>86.00000143051147</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N69" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.66</v>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_68.png</t>
+        </is>
       </c>
       <c r="P69" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_68.png</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_68.png</t>
         </is>
@@ -5535,23 +5326,20 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>50</v>
+        <v>0.96875</v>
       </c>
       <c r="M70" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N70" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N70" t="n">
-        <v>1</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_69.png</t>
+        </is>
       </c>
       <c r="P70" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_69.png</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_69.png</t>
         </is>
@@ -5608,23 +5396,20 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>73.00000190734863</v>
+        <v>0.96875</v>
       </c>
       <c r="M71" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N71" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.34</v>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_70.png</t>
+        </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_70.png</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_70.png</t>
         </is>
@@ -5681,23 +5466,20 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>68.99999976158142</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M72" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N72" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.28</v>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_71.png</t>
+        </is>
       </c>
       <c r="P72" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_71.png</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_71.png</t>
         </is>
@@ -5754,23 +5536,20 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>50</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M73" t="n">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="N73" t="n">
         <v>1.593814849853516</v>
       </c>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_72.png</t>
+        </is>
       </c>
       <c r="P73" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_72.png</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_72.png</t>
         </is>
@@ -5827,23 +5606,20 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>82.99999833106995</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M74" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N74" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N74" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1</v>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_73.png</t>
+        </is>
       </c>
       <c r="P74" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_73.png</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_73.png</t>
         </is>
@@ -5900,23 +5676,20 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>82.99999833106995</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M75" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N75" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1</v>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_74.png</t>
+        </is>
       </c>
       <c r="P75" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_74.png</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_74.png</t>
         </is>
@@ -5973,23 +5746,20 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>81.99999928474426</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M76" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N76" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N76" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1</v>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_75.png</t>
+        </is>
       </c>
       <c r="P76" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_75.png</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_75.png</t>
         </is>
@@ -6046,23 +5816,20 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>86.00000143051147</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M77" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N77" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N77" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1</v>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_76.png</t>
+        </is>
       </c>
       <c r="P77" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_76.png</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_76.png</t>
         </is>
@@ -6119,23 +5886,20 @@
         <v>32</v>
       </c>
       <c r="L78" t="n">
-        <v>85.00000238418579</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M78" t="n">
+        <v>0.9833333492279053</v>
+      </c>
+      <c r="N78" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N78" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1</v>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_77.png</t>
+        </is>
       </c>
       <c r="P78" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_77.png</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_77.png</t>
         </is>
@@ -6192,23 +5956,20 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>80.0000011920929</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M79" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N79" t="n">
         <v>1.612705230712891</v>
       </c>
-      <c r="N79" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.5600000000000001</v>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_78.png</t>
+        </is>
       </c>
       <c r="P79" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_78.png</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_78.png</t>
         </is>
@@ -6265,23 +6026,20 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>81.99999928474426</v>
+        <v>0.96875</v>
       </c>
       <c r="M80" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N80" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N80" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.6</v>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_79.png</t>
+        </is>
       </c>
       <c r="P80" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_79.png</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_79.png</t>
         </is>
@@ -6338,23 +6096,20 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>87.00000047683716</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M81" t="n">
+        <v>0.8833333253860474</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.66</v>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_80.png</t>
+        </is>
       </c>
       <c r="P81" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_80.png</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_80.png</t>
         </is>
@@ -6411,23 +6166,20 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>50</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M82" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N82" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_81.png</t>
+        </is>
       </c>
       <c r="P82" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_81.png</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_81.png</t>
         </is>
@@ -6484,23 +6236,20 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M83" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.14</v>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_82.png</t>
+        </is>
       </c>
       <c r="P83" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_82.png</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_82.png</t>
         </is>
@@ -6557,23 +6306,20 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
-        <v>68.99999976158142</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M84" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.32</v>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_83.png</t>
+        </is>
       </c>
       <c r="P84" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_83.png</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_83.png</t>
         </is>
@@ -6630,23 +6376,20 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>52.99999713897705</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M85" t="n">
+        <v>0.7333333492279053</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.8155860900878906</v>
       </c>
-      <c r="N85" t="n">
-        <v>1</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.04</v>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_84.png</t>
+        </is>
       </c>
       <c r="P85" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_84.png</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_84.png</t>
         </is>
@@ -6703,23 +6446,20 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>94.9999988079071</v>
+        <v>0.956250011920929</v>
       </c>
       <c r="M86" t="n">
+        <v>0.9166666865348816</v>
+      </c>
+      <c r="N86" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N86" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1</v>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_85.png</t>
+        </is>
       </c>
       <c r="P86" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_85.png</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_85.png</t>
         </is>
@@ -6776,23 +6516,20 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M87" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N87" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N87" t="n">
-        <v>1</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.18</v>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_86.png</t>
+        </is>
       </c>
       <c r="P87" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_86.png</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_86.png</t>
         </is>
@@ -6849,23 +6586,20 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>56.99999928474426</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M88" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N88" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.04</v>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_87.png</t>
+        </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_87.png</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_87.png</t>
         </is>
@@ -6922,23 +6656,20 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>81.99999928474426</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M89" t="n">
+        <v>0.8500000238418579</v>
+      </c>
+      <c r="N89" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N89" t="n">
-        <v>1</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.5</v>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_88.png</t>
+        </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_88.png</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_88.png</t>
         </is>
@@ -6995,23 +6726,20 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>83.99999737739563</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M90" t="n">
+        <v>0.949999988079071</v>
+      </c>
+      <c r="N90" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N90" t="n">
-        <v>1</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.5600000000000001</v>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_89.png</t>
+        </is>
       </c>
       <c r="P90" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_89.png</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_89.png</t>
         </is>
@@ -7068,23 +6796,20 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>95.99999785423279</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M91" t="n">
+        <v>0.6833333373069763</v>
+      </c>
+      <c r="N91" t="n">
         <v>1.607334136962891</v>
       </c>
-      <c r="N91" t="n">
-        <v>1</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.88</v>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_90.png</t>
+        </is>
       </c>
       <c r="P91" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_90.png</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_90.png</t>
         </is>
@@ -7141,23 +6866,20 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="M92" t="n">
+        <v>0.5833333134651184</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.14</v>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_91.png</t>
+        </is>
       </c>
       <c r="P92" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_91.png</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_91.png</t>
         </is>
@@ -7214,23 +6936,20 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>54.00000214576721</v>
+        <v>0.9583333134651184</v>
       </c>
       <c r="M93" t="n">
+        <v>0.7833333611488342</v>
+      </c>
+      <c r="N93" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.06</v>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_92.png</t>
+        </is>
       </c>
       <c r="P93" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_92.png</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_92.png</t>
         </is>
@@ -7287,23 +7006,20 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>50</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M94" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="N94" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_93.png</t>
+        </is>
       </c>
       <c r="P94" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_93.png</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_93.png</t>
         </is>
@@ -7360,23 +7076,20 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>69.9999988079071</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M95" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.34</v>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_94.png</t>
+        </is>
       </c>
       <c r="P95" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_94.png</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_94.png</t>
         </is>
@@ -7433,23 +7146,20 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>61.00000143051147</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M96" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.16</v>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_95.png</t>
+        </is>
       </c>
       <c r="P96" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_95.png</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_95.png</t>
         </is>
@@ -7506,23 +7216,20 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>50</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M97" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.8102149963378906</v>
       </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>./plots/eye/hist/history_96.png</t>
+        </is>
       </c>
       <c r="P97" t="inlineStr">
-        <is>
-          <t>./plots/eye/history_96.png</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
         <is>
           <t>./plots/eye/cm/confusion_matrix_96.png</t>
         </is>

--- a/DriverDrowsiness/results/output_eye.xlsx
+++ b/DriverDrowsiness/results/output_eye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,11 +509,6 @@
           <t>History Plot</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Confusion Matrix</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -566,22 +561,17 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6833333373069763</v>
       </c>
       <c r="N2" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_1.png</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_1.png</t>
+          <t>./plots/eye/hist/history_0.png</t>
         </is>
       </c>
     </row>
@@ -636,22 +626,17 @@
         <v>32</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.75</v>
       </c>
       <c r="N3" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_2.png</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_2.png</t>
+          <t>./plots/eye/hist/history_1.png</t>
         </is>
       </c>
     </row>
@@ -706,22 +691,17 @@
         <v>64</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N4" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_3.png</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_3.png</t>
+          <t>./plots/eye/hist/history_2.png</t>
         </is>
       </c>
     </row>
@@ -776,22 +756,17 @@
         <v>16</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.75</v>
       </c>
       <c r="N5" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_4.png</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_4.png</t>
+          <t>./plots/eye/hist/history_3.png</t>
         </is>
       </c>
     </row>
@@ -846,22 +821,17 @@
         <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8166666626930237</v>
+        <v>0.7166666388511658</v>
       </c>
       <c r="N6" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_5.png</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_5.png</t>
+          <t>./plots/eye/hist/history_4.png</t>
         </is>
       </c>
     </row>
@@ -916,22 +886,17 @@
         <v>64</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M7" t="n">
-        <v>0.800000011920929</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N7" t="n">
         <v>3.196109771728516</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_6.png</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_6.png</t>
+          <t>./plots/eye/hist/history_5.png</t>
         </is>
       </c>
     </row>
@@ -986,22 +951,17 @@
         <v>16</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9604166746139526</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.8166666626930237</v>
       </c>
       <c r="N8" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_7.png</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_7.png</t>
+          <t>./plots/eye/hist/history_6.png</t>
         </is>
       </c>
     </row>
@@ -1056,22 +1016,17 @@
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9583333134651184</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N9" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_8.png</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_8.png</t>
+          <t>./plots/eye/hist/history_7.png</t>
         </is>
       </c>
     </row>
@@ -1129,19 +1084,14 @@
         <v>0.9916666746139526</v>
       </c>
       <c r="M10" t="n">
-        <v>0.550000011920929</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N10" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_9.png</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_9.png</t>
+          <t>./plots/eye/hist/history_8.png</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1146,17 @@
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M11" t="n">
-        <v>0.699999988079071</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="N11" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_10.png</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_10.png</t>
+          <t>./plots/eye/hist/history_9.png</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1211,17 @@
         <v>32</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="N12" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_11.png</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_11.png</t>
+          <t>./plots/eye/hist/history_10.png</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1276,17 @@
         <v>64</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.6833333373069763</v>
       </c>
       <c r="N13" t="n">
         <v>1.617740631103516</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_12.png</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_12.png</t>
+          <t>./plots/eye/hist/history_11.png</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1341,17 @@
         <v>16</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="N14" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_13.png</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_13.png</t>
+          <t>./plots/eye/hist/history_12.png</t>
         </is>
       </c>
     </row>
@@ -1476,22 +1406,17 @@
         <v>32</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9729166626930237</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N15" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_14.png</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_14.png</t>
+          <t>./plots/eye/hist/history_13.png</t>
         </is>
       </c>
     </row>
@@ -1546,22 +1471,17 @@
         <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N16" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_15.png</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_15.png</t>
+          <t>./plots/eye/hist/history_14.png</t>
         </is>
       </c>
     </row>
@@ -1616,22 +1536,17 @@
         <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N17" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_16.png</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_16.png</t>
+          <t>./plots/eye/hist/history_15.png</t>
         </is>
       </c>
     </row>
@@ -1686,22 +1601,17 @@
         <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N18" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_17.png</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_17.png</t>
+          <t>./plots/eye/hist/history_16.png</t>
         </is>
       </c>
     </row>
@@ -1759,19 +1669,14 @@
         <v>0.9895833134651184</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6166666746139526</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N19" t="n">
         <v>3.177555084228516</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_18.png</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_18.png</t>
+          <t>./plots/eye/hist/history_17.png</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1731,17 @@
         <v>16</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9520833492279053</v>
+        <v>0.9541666507720947</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7166666388511658</v>
+        <v>0.5833333134651184</v>
       </c>
       <c r="N20" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_19.png</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_19.png</t>
+          <t>./plots/eye/hist/history_18.png</t>
         </is>
       </c>
     </row>
@@ -1896,22 +1796,17 @@
         <v>32</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.5833333134651184</v>
       </c>
       <c r="N21" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_20.png</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_20.png</t>
+          <t>./plots/eye/hist/history_19.png</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1861,7 @@
         <v>64</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9729166626930237</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M22" t="n">
         <v>0.5333333611488342</v>
@@ -1976,12 +1871,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_21.png</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_21.png</t>
+          <t>./plots/eye/hist/history_20.png</t>
         </is>
       </c>
     </row>
@@ -2036,22 +1926,17 @@
         <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M23" t="n">
-        <v>0.699999988079071</v>
+        <v>0.6166666746139526</v>
       </c>
       <c r="N23" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_22.png</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_22.png</t>
+          <t>./plots/eye/hist/history_21.png</t>
         </is>
       </c>
     </row>
@@ -2106,22 +1991,17 @@
         <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8833333253860474</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N24" t="n">
         <v>1.599185943603516</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_23.png</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_23.png</t>
+          <t>./plots/eye/hist/history_22.png</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2056,7 @@
         <v>64</v>
       </c>
       <c r="L25" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M25" t="n">
         <v>0.550000011920929</v>
@@ -2186,12 +2066,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_24.png</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_24.png</t>
+          <t>./plots/eye/hist/history_23.png</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9645833373069763</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M26" t="n">
         <v>0.9666666388511658</v>
@@ -2256,12 +2131,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_25.png</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_25.png</t>
+          <t>./plots/eye/hist/history_24.png</t>
         </is>
       </c>
     </row>
@@ -2316,22 +2186,17 @@
         <v>32</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N27" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_26.png</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_26.png</t>
+          <t>./plots/eye/hist/history_25.png</t>
         </is>
       </c>
     </row>
@@ -2386,22 +2251,17 @@
         <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N28" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_27.png</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_27.png</t>
+          <t>./plots/eye/hist/history_26.png</t>
         </is>
       </c>
     </row>
@@ -2456,22 +2316,17 @@
         <v>16</v>
       </c>
       <c r="L29" t="n">
-        <v>0.96875</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9666666388511658</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_28.png</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_28.png</t>
+          <t>./plots/eye/hist/history_27.png</t>
         </is>
       </c>
     </row>
@@ -2526,22 +2381,17 @@
         <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.7833333611488342</v>
       </c>
       <c r="N30" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_29.png</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_29.png</t>
+          <t>./plots/eye/hist/history_28.png</t>
         </is>
       </c>
     </row>
@@ -2596,22 +2446,17 @@
         <v>64</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9979166388511658</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5666666626930237</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="N31" t="n">
         <v>1.621250152587891</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_30.png</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_30.png</t>
+          <t>./plots/eye/hist/history_29.png</t>
         </is>
       </c>
     </row>
@@ -2666,22 +2511,17 @@
         <v>16</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9541666507720947</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M32" t="n">
-        <v>0.550000011920929</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="N32" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_31.png</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_31.png</t>
+          <t>./plots/eye/hist/history_30.png</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2576,17 @@
         <v>32</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9729166626930237</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.75</v>
       </c>
       <c r="N33" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_32.png</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_32.png</t>
+          <t>./plots/eye/hist/history_31.png</t>
         </is>
       </c>
     </row>
@@ -2806,22 +2641,17 @@
         <v>64</v>
       </c>
       <c r="L34" t="n">
-        <v>0.96875</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N34" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_33.png</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_33.png</t>
+          <t>./plots/eye/hist/history_32.png</t>
         </is>
       </c>
     </row>
@@ -2876,22 +2706,17 @@
         <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7833333611488342</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="N35" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_34.png</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_34.png</t>
+          <t>./plots/eye/hist/history_33.png</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2771,17 @@
         <v>32</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N36" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_35.png</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_35.png</t>
+          <t>./plots/eye/hist/history_34.png</t>
         </is>
       </c>
     </row>
@@ -3016,22 +2836,17 @@
         <v>64</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N37" t="n">
         <v>0.8241310119628906</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_36.png</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_36.png</t>
+          <t>./plots/eye/hist/history_35.png</t>
         </is>
       </c>
     </row>
@@ -3086,22 +2901,17 @@
         <v>16</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M38" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N38" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_37.png</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_37.png</t>
+          <t>./plots/eye/hist/history_36.png</t>
         </is>
       </c>
     </row>
@@ -3156,22 +2966,17 @@
         <v>32</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9729166626930237</v>
+        <v>0.9645833373069763</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N39" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_38.png</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_38.png</t>
+          <t>./plots/eye/hist/history_37.png</t>
         </is>
       </c>
     </row>
@@ -3226,22 +3031,17 @@
         <v>64</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M40" t="n">
-        <v>0.949999988079071</v>
+        <v>0.7166666388511658</v>
       </c>
       <c r="N40" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_39.png</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_39.png</t>
+          <t>./plots/eye/hist/history_38.png</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3096,7 @@
         <v>16</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M41" t="n">
         <v>0.9833333492279053</v>
@@ -3306,12 +3106,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_40.png</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_40.png</t>
+          <t>./plots/eye/hist/history_39.png</t>
         </is>
       </c>
     </row>
@@ -3366,22 +3161,17 @@
         <v>32</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N42" t="n">
         <v>1.610507965087891</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_41.png</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_41.png</t>
+          <t>./plots/eye/hist/history_40.png</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3226,7 @@
         <v>64</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M43" t="n">
         <v>0.949999988079071</v>
@@ -3446,12 +3236,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_42.png</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_42.png</t>
+          <t>./plots/eye/hist/history_41.png</t>
         </is>
       </c>
     </row>
@@ -3506,22 +3291,17 @@
         <v>16</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9458333253860474</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="N44" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_43.png</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_43.png</t>
+          <t>./plots/eye/hist/history_42.png</t>
         </is>
       </c>
     </row>
@@ -3576,22 +3356,17 @@
         <v>32</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.9520833492279053</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N45" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_44.png</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_44.png</t>
+          <t>./plots/eye/hist/history_43.png</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3421,7 @@
         <v>64</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M46" t="n">
         <v>0.5333333611488342</v>
@@ -3656,12 +3431,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_45.png</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_45.png</t>
+          <t>./plots/eye/hist/history_44.png</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3486,17 @@
         <v>16</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M47" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N47" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_46.png</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_46.png</t>
+          <t>./plots/eye/hist/history_45.png</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3551,17 @@
         <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7166666388511658</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N48" t="n">
         <v>0.8133888244628906</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_47.png</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_47.png</t>
+          <t>./plots/eye/hist/history_46.png</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M49" t="n">
         <v>0.5333333611488342</v>
@@ -3866,12 +3626,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_48.png</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_48.png</t>
+          <t>./plots/eye/hist/history_47.png</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3681,17 @@
         <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N50" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_49.png</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_49.png</t>
+          <t>./plots/eye/hist/history_48.png</t>
         </is>
       </c>
     </row>
@@ -3996,22 +3746,17 @@
         <v>32</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M51" t="n">
-        <v>0.800000011920929</v>
+        <v>0.7833333611488342</v>
       </c>
       <c r="N51" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_50.png</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_50.png</t>
+          <t>./plots/eye/hist/history_49.png</t>
         </is>
       </c>
     </row>
@@ -4066,22 +3811,17 @@
         <v>64</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9937499761581421</v>
       </c>
       <c r="M52" t="n">
-        <v>0.550000011920929</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="N52" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_51.png</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_51.png</t>
+          <t>./plots/eye/hist/history_50.png</t>
         </is>
       </c>
     </row>
@@ -4136,22 +3876,17 @@
         <v>16</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9645833373069763</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6833333373069763</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N53" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_52.png</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_52.png</t>
+          <t>./plots/eye/hist/history_51.png</t>
         </is>
       </c>
     </row>
@@ -4206,22 +3941,17 @@
         <v>32</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N54" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_53.png</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_53.png</t>
+          <t>./plots/eye/hist/history_52.png</t>
         </is>
       </c>
     </row>
@@ -4276,22 +4006,17 @@
         <v>64</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M55" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6833333373069763</v>
       </c>
       <c r="N55" t="n">
         <v>3.181461334228516</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_54.png</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_54.png</t>
+          <t>./plots/eye/hist/history_53.png</t>
         </is>
       </c>
     </row>
@@ -4346,22 +4071,17 @@
         <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9583333134651184</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M56" t="n">
-        <v>0.6166666746139526</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="N56" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_55.png</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_55.png</t>
+          <t>./plots/eye/hist/history_54.png</t>
         </is>
       </c>
     </row>
@@ -4416,22 +4136,17 @@
         <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9916666746139526</v>
       </c>
       <c r="M57" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.7166666388511658</v>
       </c>
       <c r="N57" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_56.png</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_56.png</t>
+          <t>./plots/eye/hist/history_55.png</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4201,17 @@
         <v>64</v>
       </c>
       <c r="L58" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M58" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="N58" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_57.png</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_57.png</t>
+          <t>./plots/eye/hist/history_56.png</t>
         </is>
       </c>
     </row>
@@ -4556,22 +4266,17 @@
         <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M59" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.7833333611488342</v>
       </c>
       <c r="N59" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_58.png</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_58.png</t>
+          <t>./plots/eye/hist/history_57.png</t>
         </is>
       </c>
     </row>
@@ -4626,22 +4331,17 @@
         <v>32</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="N60" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_59.png</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_59.png</t>
+          <t>./plots/eye/hist/history_58.png</t>
         </is>
       </c>
     </row>
@@ -4696,22 +4396,17 @@
         <v>64</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M61" t="n">
-        <v>0.6166666746139526</v>
+        <v>0.7166666388511658</v>
       </c>
       <c r="N61" t="n">
         <v>1.603092193603516</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_60.png</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_60.png</t>
+          <t>./plots/eye/hist/history_59.png</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4461,17 @@
         <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9729166626930237</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N62" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_61.png</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_61.png</t>
+          <t>./plots/eye/hist/history_60.png</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4526,17 @@
         <v>32</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M63" t="n">
-        <v>0.949999988079071</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_62.png</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_62.png</t>
+          <t>./plots/eye/hist/history_61.png</t>
         </is>
       </c>
     </row>
@@ -4906,22 +4591,17 @@
         <v>64</v>
       </c>
       <c r="L64" t="n">
-        <v>0.981249988079071</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="N64" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_63.png</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_63.png</t>
+          <t>./plots/eye/hist/history_62.png</t>
         </is>
       </c>
     </row>
@@ -4976,22 +4656,17 @@
         <v>16</v>
       </c>
       <c r="L65" t="n">
-        <v>0.96875</v>
+        <v>0.9750000238418579</v>
       </c>
       <c r="M65" t="n">
-        <v>0.9166666865348816</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_64.png</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_64.png</t>
+          <t>./plots/eye/hist/history_63.png</t>
         </is>
       </c>
     </row>
@@ -5046,22 +4721,17 @@
         <v>32</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M66" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="N66" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_65.png</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_65.png</t>
+          <t>./plots/eye/hist/history_64.png</t>
         </is>
       </c>
     </row>
@@ -5116,22 +4786,17 @@
         <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>0.987500011920929</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N67" t="n">
         <v>3.172183990478516</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_66.png</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_66.png</t>
+          <t>./plots/eye/hist/history_65.png</t>
         </is>
       </c>
     </row>
@@ -5186,22 +4851,17 @@
         <v>16</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9624999761581421</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M68" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.8166666626930237</v>
       </c>
       <c r="N68" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_67.png</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_67.png</t>
+          <t>./plots/eye/hist/history_66.png</t>
         </is>
       </c>
     </row>
@@ -5256,22 +4916,17 @@
         <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N69" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_68.png</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_68.png</t>
+          <t>./plots/eye/hist/history_67.png</t>
         </is>
       </c>
     </row>
@@ -5326,7 +4981,7 @@
         <v>64</v>
       </c>
       <c r="L70" t="n">
-        <v>0.96875</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M70" t="n">
         <v>0.5333333611488342</v>
@@ -5336,12 +4991,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_69.png</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_69.png</t>
+          <t>./plots/eye/hist/history_68.png</t>
         </is>
       </c>
     </row>
@@ -5396,22 +5046,17 @@
         <v>16</v>
       </c>
       <c r="L71" t="n">
-        <v>0.96875</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M71" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N71" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_70.png</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_70.png</t>
+          <t>./plots/eye/hist/history_69.png</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5111,7 @@
         <v>32</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M72" t="n">
         <v>0.9666666388511658</v>
@@ -5476,12 +5121,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_71.png</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_71.png</t>
+          <t>./plots/eye/hist/history_70.png</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5176,17 @@
         <v>64</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9958333373069763</v>
       </c>
       <c r="M73" t="n">
-        <v>0.550000011920929</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N73" t="n">
         <v>1.593814849853516</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_72.png</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_72.png</t>
+          <t>./plots/eye/hist/history_71.png</t>
         </is>
       </c>
     </row>
@@ -5606,22 +5241,17 @@
         <v>16</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="M74" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N74" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_73.png</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_73.png</t>
+          <t>./plots/eye/hist/history_72.png</t>
         </is>
       </c>
     </row>
@@ -5676,22 +5306,17 @@
         <v>32</v>
       </c>
       <c r="L75" t="n">
-        <v>0.981249988079071</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M75" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N75" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_74.png</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_74.png</t>
+          <t>./plots/eye/hist/history_73.png</t>
         </is>
       </c>
     </row>
@@ -5746,22 +5371,17 @@
         <v>64</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M76" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="N76" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_75.png</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_75.png</t>
+          <t>./plots/eye/hist/history_74.png</t>
         </is>
       </c>
     </row>
@@ -5816,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9854166507720947</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M77" t="n">
         <v>0.9666666388511658</v>
@@ -5826,12 +5446,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_76.png</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_76.png</t>
+          <t>./plots/eye/hist/history_75.png</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5511,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_77.png</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_77.png</t>
+          <t>./plots/eye/hist/history_76.png</t>
         </is>
       </c>
     </row>
@@ -5956,22 +5566,17 @@
         <v>64</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9916666746139526</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M79" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6166666746139526</v>
       </c>
       <c r="N79" t="n">
         <v>1.612705230712891</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_78.png</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_78.png</t>
+          <t>./plots/eye/hist/history_77.png</t>
         </is>
       </c>
     </row>
@@ -6026,22 +5631,17 @@
         <v>16</v>
       </c>
       <c r="L80" t="n">
-        <v>0.96875</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="N80" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_79.png</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_79.png</t>
+          <t>./plots/eye/hist/history_78.png</t>
         </is>
       </c>
     </row>
@@ -6096,22 +5696,17 @@
         <v>32</v>
       </c>
       <c r="L81" t="n">
-        <v>0.981249988079071</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8833333253860474</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="N81" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_80.png</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_80.png</t>
+          <t>./plots/eye/hist/history_79.png</t>
         </is>
       </c>
     </row>
@@ -6166,22 +5761,17 @@
         <v>64</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9645833373069763</v>
+        <v>0.9833333492279053</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="N82" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_81.png</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_81.png</t>
+          <t>./plots/eye/hist/history_80.png</t>
         </is>
       </c>
     </row>
@@ -6236,22 +5826,17 @@
         <v>16</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9895833134651184</v>
+        <v>0.96875</v>
       </c>
       <c r="M83" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N83" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_82.png</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_82.png</t>
+          <t>./plots/eye/hist/history_81.png</t>
         </is>
       </c>
     </row>
@@ -6306,22 +5891,17 @@
         <v>32</v>
       </c>
       <c r="L84" t="n">
+        <v>0.9854166507720947</v>
+      </c>
+      <c r="M84" t="n">
         <v>0.9833333492279053</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9666666388511658</v>
       </c>
       <c r="N84" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_83.png</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_83.png</t>
+          <t>./plots/eye/hist/history_82.png</t>
         </is>
       </c>
     </row>
@@ -6376,22 +5956,17 @@
         <v>64</v>
       </c>
       <c r="L85" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9854166507720947</v>
       </c>
       <c r="M85" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="N85" t="n">
         <v>0.8155860900878906</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_84.png</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_84.png</t>
+          <t>./plots/eye/hist/history_83.png</t>
         </is>
       </c>
     </row>
@@ -6446,22 +6021,17 @@
         <v>16</v>
       </c>
       <c r="L86" t="n">
-        <v>0.956250011920929</v>
+        <v>0.9541666507720947</v>
       </c>
       <c r="M86" t="n">
-        <v>0.9166666865348816</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N86" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_85.png</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_85.png</t>
+          <t>./plots/eye/hist/history_84.png</t>
         </is>
       </c>
     </row>
@@ -6516,22 +6086,17 @@
         <v>32</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.96875</v>
       </c>
       <c r="M87" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="N87" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_86.png</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_86.png</t>
+          <t>./plots/eye/hist/history_85.png</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6151,17 @@
         <v>64</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9833333492279053</v>
+        <v>0.987500011920929</v>
       </c>
       <c r="M88" t="n">
-        <v>0.8500000238418579</v>
+        <v>0.75</v>
       </c>
       <c r="N88" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_87.png</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_87.png</t>
+          <t>./plots/eye/hist/history_86.png</t>
         </is>
       </c>
     </row>
@@ -6656,22 +6216,17 @@
         <v>16</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9604166746139526</v>
+        <v>0.9541666507720947</v>
       </c>
       <c r="M89" t="n">
-        <v>0.8500000238418579</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_88.png</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_88.png</t>
+          <t>./plots/eye/hist/history_87.png</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6281,7 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9791666865348816</v>
+        <v>0.9708333611488342</v>
       </c>
       <c r="M90" t="n">
         <v>0.949999988079071</v>
@@ -6736,12 +6291,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_89.png</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_89.png</t>
+          <t>./plots/eye/hist/history_88.png</t>
         </is>
       </c>
     </row>
@@ -6796,22 +6346,17 @@
         <v>64</v>
       </c>
       <c r="L91" t="n">
-        <v>0.9937499761581421</v>
+        <v>0.9895833134651184</v>
       </c>
       <c r="M91" t="n">
-        <v>0.6833333373069763</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="N91" t="n">
         <v>1.607334136962891</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_90.png</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_90.png</t>
+          <t>./plots/eye/hist/history_89.png</t>
         </is>
       </c>
     </row>
@@ -6866,22 +6411,17 @@
         <v>16</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9583333134651184</v>
+        <v>0.9375</v>
       </c>
       <c r="M92" t="n">
-        <v>0.5833333134651184</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N92" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_91.png</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_91.png</t>
+          <t>./plots/eye/hist/history_90.png</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6476,17 @@
         <v>32</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9583333134651184</v>
+        <v>0.9770833253860474</v>
       </c>
       <c r="M93" t="n">
-        <v>0.7833333611488342</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="N93" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_92.png</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_92.png</t>
+          <t>./plots/eye/hist/history_91.png</t>
         </is>
       </c>
     </row>
@@ -7006,7 +6541,7 @@
         <v>64</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9770833253860474</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M94" t="n">
         <v>0.5333333611488342</v>
@@ -7016,12 +6551,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_93.png</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_93.png</t>
+          <t>./plots/eye/hist/history_92.png</t>
         </is>
       </c>
     </row>
@@ -7076,22 +6606,17 @@
         <v>16</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9624999761581421</v>
       </c>
       <c r="M95" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="N95" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_94.png</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_94.png</t>
+          <t>./plots/eye/hist/history_93.png</t>
         </is>
       </c>
     </row>
@@ -7146,22 +6671,17 @@
         <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9708333611488342</v>
+        <v>0.981249988079071</v>
       </c>
       <c r="M96" t="n">
-        <v>0.9333333373069763</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="N96" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_95.png</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_95.png</t>
+          <t>./plots/eye/hist/history_94.png</t>
         </is>
       </c>
     </row>
@@ -7216,22 +6736,17 @@
         <v>64</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9791666865348816</v>
       </c>
       <c r="M97" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.5666666626930237</v>
       </c>
       <c r="N97" t="n">
         <v>0.8102149963378906</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>./plots/eye/hist/history_96.png</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>./plots/eye/cm/confusion_matrix_96.png</t>
+          <t>./plots/eye/hist/history_95.png</t>
         </is>
       </c>
     </row>
